--- a/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3264,10 +3267,21 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>762204</v>
+        <v>774204</v>
       </c>
       <c r="C215">
-        <v>29453285</v>
+        <v>29803285</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>777704</v>
+      </c>
+      <c r="C216">
+        <v>29756285</v>
       </c>
     </row>
   </sheetData>

--- a/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
@@ -3278,7 +3278,7 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>777704</v>
+        <v>789674</v>
       </c>
       <c r="C216">
         <v>29756285</v>

--- a/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3284,6 +3287,17 @@
         <v>29756285</v>
       </c>
     </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>793174</v>
+      </c>
+      <c r="C217">
+        <v>30666285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
@@ -3295,7 +3295,7 @@
         <v>793174</v>
       </c>
       <c r="C217">
-        <v>30666285</v>
+        <v>30076285</v>
       </c>
     </row>
   </sheetData>

--- a/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
+++ b/5/6/Stock de instrumentos de deuda de la Tesorería General de República en circulación 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>Serie</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C217"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3298,6 +3301,17 @@
         <v>30076285</v>
       </c>
     </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218">
+        <v>793174</v>
+      </c>
+      <c r="C218">
+        <v>30076285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
